--- a/biology/Botanique/Myosoton_aquaticum/Myosoton_aquaticum.xlsx
+++ b/biology/Botanique/Myosoton_aquaticum/Myosoton_aquaticum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Céraiste aquatique
 Le Céraiste aquatique ou la Stellaire aquatique (Myosoton aquaticum) est une plante vivace herbacée du genre Myosoton et de la famille des Caryophyllaceae.
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Malachium aquaticum (L.) Fr.
 Alsine aquatica (L.) Britt.
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ressemble superficiellement au Mouron des oiseaux (Stellaria media) mais nettement plus vigoureux.
 Tiges rampantes et dressées, glabres dans le bas, pubescentes dans le haut et pouvant atteindre 90 cm de haut. Feuilles ovales, aiguës, à bords ondulés, les supérieures sessiles et les inférieures pétiolées. Fleurs grandes, aux pétales blancs profondément divisés, souvent une fois et demie plus longs que les sépales verts. Styles 5 et étamines 10.
@@ -577,11 +593,13 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante des milieux humides : bords des étangs, des cours d'eau, terrains exondés, fossés.
 Floraison de juin à octobre.
-Comme d'autres stellaires (ex : Stellaria media), elle peut être hyperaccumulatrice du Cadmium[1]
+Comme d'autres stellaires (ex : Stellaria media), elle peut être hyperaccumulatrice du Cadmium
 </t>
         </is>
       </c>
@@ -610,7 +628,9 @@
           <t>Espèce ressemblante</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Stellaria nemorum : la Stellaire des bois
 Stellaria media : le Mouron blanc</t>
